--- a/biology/Zoologie/Bondrée_de_Steere/Bondrée_de_Steere.xlsx
+++ b/biology/Zoologie/Bondrée_de_Steere/Bondrée_de_Steere.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_de_Steere</t>
+          <t>Bondrée_de_Steere</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pernis steerei
 La Bondrée de Steere ou bondrée des Philippines (Pernis steerei) est une espèce d'oiseaux de la famille des Accipitridés, de la sous-famille des Gypaetinae et de la tribu des Pernini.
-Son plumage rappelle celui de l'aigle des Philippines (Spizaetus philippensis), mécanisme évolutif lui permettant de décourager des prédateurs[1]. 
+Son plumage rappelle celui de l'aigle des Philippines (Spizaetus philippensis), mécanisme évolutif lui permettant de décourager des prédateurs. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_de_Steere</t>
+          <t>Bondrée_de_Steere</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu à travers l'archipel des Philippines (sauf à Palawan).
-Elle habite les forêts jusqu'à 1300m d'altitude[1].
+Elle habite les forêts jusqu'à 1300m d'altitude.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_de_Steere</t>
+          <t>Bondrée_de_Steere</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant les travaux phylogéniques de Gamauf &amp; Haring (2004), le Congrès ornithologique international la sépare de la Bondrée des Célèbes (Pernis celebensis).
 Sa taxinomie reste discutée. D'après le Congrès ornithologique international, l'espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
